--- a/documentation/test plans/Test Plan.xlsx
+++ b/documentation/test plans/Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portdotacdotuk-my.sharepoint.com/personal/up2203365_myport_ac_uk/Documents/Modules/SETUP/Semester 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1eb787b55aea9420/Documents/GitHub/ExpensEase/documentation/test plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E7EA6F-55E1-4273-9246-2FB1F04474A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{20E7EA6F-55E1-4273-9246-2FB1F04474A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E91588F1-DF67-40B3-9FE8-9D5AD340EA51}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="17620" xr2:uid="{EA31B261-1CA3-449D-85B8-8ABB407576D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="17400" xr2:uid="{EA31B261-1CA3-449D-85B8-8ABB407576D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Test #</t>
   </si>
@@ -68,7 +68,103 @@
     <t>Work seemlessly</t>
   </si>
   <si>
-    <t xml:space="preserve">Receipt Scanner: </t>
+    <t>Receipt Scanner: Handle different receipt types</t>
+  </si>
+  <si>
+    <t>Receipt Scanner: Handle poor quality images</t>
+  </si>
+  <si>
+    <t>Analytical Graphs: Generate overall budget  graph</t>
+  </si>
+  <si>
+    <t>Analytical Graphs: Generate category specific graphs</t>
+  </si>
+  <si>
+    <t>Manual input: Update budget with manual inputs</t>
+  </si>
+  <si>
+    <t>Real-time Warnings: Issue warnings within a minute</t>
+  </si>
+  <si>
+    <t>Default Data Display: Modify default display settings</t>
+  </si>
+  <si>
+    <t>Accessibity Options: Activate high contrast mode</t>
+  </si>
+  <si>
+    <t>Customizable Categorization: Change category icons</t>
+  </si>
+  <si>
+    <t>Efficient Onboarding: Complete onboarding within 2 minutes</t>
+  </si>
+  <si>
+    <t>Continuous Availability: Scan receipts without interenet</t>
+  </si>
+  <si>
+    <t>Scan various receipt types</t>
+  </si>
+  <si>
+    <t>Upload a low-quality receipt image.</t>
+  </si>
+  <si>
+    <t>Request overall monthly budget graph.</t>
+  </si>
+  <si>
+    <t>Request category-specific graphs.</t>
+  </si>
+  <si>
+    <t>Manually input various income sources.</t>
+  </si>
+  <si>
+    <t>Exceed the monthly budget limit.</t>
+  </si>
+  <si>
+    <t>Change default data display preferences.</t>
+  </si>
+  <si>
+    <t>Activate high contrast mode.</t>
+  </si>
+  <si>
+    <t>Change category icons.</t>
+  </si>
+  <si>
+    <t>Create a new user account.</t>
+  </si>
+  <si>
+    <t>Disable internet access.</t>
+  </si>
+  <si>
+    <t>System categorizes expenses for different types.</t>
+  </si>
+  <si>
+    <t>System prompts for re-scanning or provides feedback.</t>
+  </si>
+  <si>
+    <t>Accurate representation of user's financial status.</t>
+  </si>
+  <si>
+    <t>Correct display of data for selected expense categories.</t>
+  </si>
+  <si>
+    <t>Budget reflects changes in manually inputted data.</t>
+  </si>
+  <si>
+    <t>System issues a warning promptly.</t>
+  </si>
+  <si>
+    <t>Changes are applied consistently across the application.</t>
+  </si>
+  <si>
+    <t>All UI elements remain accessible in high contrast mode.</t>
+  </si>
+  <si>
+    <t>Icons are updated across the application.</t>
+  </si>
+  <si>
+    <t>Onboarding process completes within two minutes.</t>
+  </si>
+  <si>
+    <t>System seamlessly scans receipts without internet access.</t>
   </si>
 </sst>
 </file>
@@ -158,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{777DE30A-FE4C-4404-A502-FEBBBD4232A6}" name="Table2" displayName="Table2" ref="A2:F26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F26" xr:uid="{777DE30A-FE4C-4404-A502-FEBBBD4232A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{777DE30A-FE4C-4404-A502-FEBBBD4232A6}" name="Table2" displayName="Table2" ref="A2:F14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F14" xr:uid="{777DE30A-FE4C-4404-A502-FEBBBD4232A6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D6F47E15-A90F-4486-A2A3-7E40FC364372}" name="Test #" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{8EB61C97-E024-4361-B353-5D6DE107A874}" name="Objective" dataDxfId="4"/>
@@ -491,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D183D9B-F2BB-4E3C-9C85-E440E24C384E}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,8 +656,12 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -570,96 +670,158 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="133" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="139.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>

--- a/documentation/test plans/Test Plan.xlsx
+++ b/documentation/test plans/Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1eb787b55aea9420/Documents/GitHub/ExpensEase/documentation/test plans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osbor\OneDrive\Documents\GitHub\ExpensEase\documentation\test plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{20E7EA6F-55E1-4273-9246-2FB1F04474A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E91588F1-DF67-40B3-9FE8-9D5AD340EA51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAFAF0C-B069-4787-BCAD-7D892C920AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="17400" xr2:uid="{EA31B261-1CA3-449D-85B8-8ABB407576D7}"/>
+    <workbookView xWindow="2360" yWindow="3300" windowWidth="24000" windowHeight="12770" xr2:uid="{EA31B261-1CA3-449D-85B8-8ABB407576D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Test #</t>
   </si>
@@ -165,6 +165,21 @@
   </si>
   <si>
     <t>System seamlessly scans receipts without internet access.</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Only customizable categorization has been implimented and works well</t>
+  </si>
+  <si>
+    <t>1:10m</t>
   </si>
 </sst>
 </file>
@@ -587,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D183D9B-F2BB-4E3C-9C85-E440E24C384E}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,8 +661,12 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -662,8 +681,12 @@
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="107.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -678,8 +701,12 @@
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -694,8 +721,12 @@
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -710,8 +741,12 @@
       <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -726,8 +761,12 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -742,8 +781,12 @@
       <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -758,8 +801,12 @@
       <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -774,8 +821,12 @@
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -790,8 +841,12 @@
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -806,8 +861,12 @@
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -822,8 +881,12 @@
       <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
